--- a/recursos/matriz_estados.xlsx
+++ b/recursos/matriz_estados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1457984E-5BDA-40C0-93A7-2CDD69C3F0F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C221A6-CA83-42EF-ABE0-B74700711009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B964F424-59DC-420D-8D18-139DE96934E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>estado</t>
   </si>
@@ -156,6 +156,9 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>error en comentarios</t>
   </si>
 </sst>
 </file>
@@ -646,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9785B6-FC4B-4915-9F11-D05AE974D1C1}">
-  <dimension ref="A1:AG34"/>
+  <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD34" sqref="AD34"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AF11" sqref="AF11:AG11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1726,6 +1729,12 @@
       <c r="AD11" s="7">
         <v>302</v>
       </c>
+      <c r="AF11" s="7">
+        <v>308</v>
+      </c>
+      <c r="AG11" s="15" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
@@ -1963,26 +1972,26 @@
       <c r="Q14" s="7">
         <v>302</v>
       </c>
-      <c r="R14" s="5">
+      <c r="R14" s="7">
+        <v>302</v>
+      </c>
+      <c r="S14" s="7">
+        <v>302</v>
+      </c>
+      <c r="T14" s="7">
+        <v>302</v>
+      </c>
+      <c r="U14" s="7">
+        <v>302</v>
+      </c>
+      <c r="V14" s="15">
         <v>13</v>
       </c>
-      <c r="S14" s="7">
-        <v>302</v>
-      </c>
-      <c r="T14" s="7">
-        <v>302</v>
-      </c>
-      <c r="U14" s="7">
-        <v>302</v>
-      </c>
-      <c r="V14" s="7">
-        <v>302</v>
-      </c>
-      <c r="W14" s="7">
-        <v>302</v>
-      </c>
-      <c r="X14" s="7">
-        <v>302</v>
+      <c r="W14" s="15">
+        <v>13</v>
+      </c>
+      <c r="X14" s="15">
+        <v>13</v>
       </c>
       <c r="Y14" s="7">
         <v>302</v>
@@ -2008,91 +2017,91 @@
         <v>13</v>
       </c>
       <c r="B15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="G15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="H15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="I15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="K15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="L15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="M15" s="7">
-        <v>302</v>
-      </c>
-      <c r="N15" s="6">
-        <v>219</v>
+        <v>308</v>
+      </c>
+      <c r="N15" s="7">
+        <v>308</v>
       </c>
       <c r="O15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Q15" s="7">
-        <v>302</v>
-      </c>
-      <c r="R15" s="7">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="R15" s="15">
+        <v>33</v>
       </c>
       <c r="S15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="T15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="U15" s="7">
-        <v>302</v>
-      </c>
-      <c r="V15" s="7">
-        <v>302</v>
-      </c>
-      <c r="W15" s="7">
-        <v>302</v>
-      </c>
-      <c r="X15" s="7">
-        <v>302</v>
+        <v>308</v>
+      </c>
+      <c r="V15" s="15">
+        <v>13</v>
+      </c>
+      <c r="W15" s="15">
+        <v>13</v>
+      </c>
+      <c r="X15" s="15">
+        <v>13</v>
       </c>
       <c r="Y15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="Z15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AA15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AB15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AC15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AD15" s="7">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
@@ -3358,7 +3367,7 @@
       <c r="V29" s="7">
         <v>306</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="5">
         <v>29</v>
       </c>
       <c r="X29" s="7">
@@ -3841,6 +3850,98 @@
       </c>
       <c r="AD34" s="10">
         <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>33</v>
+      </c>
+      <c r="B35" s="7">
+        <v>308</v>
+      </c>
+      <c r="C35" s="7">
+        <v>308</v>
+      </c>
+      <c r="D35" s="7">
+        <v>308</v>
+      </c>
+      <c r="E35" s="7">
+        <v>308</v>
+      </c>
+      <c r="F35" s="7">
+        <v>308</v>
+      </c>
+      <c r="G35" s="7">
+        <v>308</v>
+      </c>
+      <c r="H35" s="7">
+        <v>308</v>
+      </c>
+      <c r="I35" s="7">
+        <v>308</v>
+      </c>
+      <c r="J35" s="7">
+        <v>308</v>
+      </c>
+      <c r="K35" s="7">
+        <v>308</v>
+      </c>
+      <c r="L35" s="7">
+        <v>308</v>
+      </c>
+      <c r="M35" s="7">
+        <v>308</v>
+      </c>
+      <c r="N35" s="6">
+        <v>219</v>
+      </c>
+      <c r="O35" s="7">
+        <v>308</v>
+      </c>
+      <c r="P35" s="7">
+        <v>308</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>308</v>
+      </c>
+      <c r="R35" s="7">
+        <v>308</v>
+      </c>
+      <c r="S35" s="7">
+        <v>308</v>
+      </c>
+      <c r="T35" s="7">
+        <v>308</v>
+      </c>
+      <c r="U35" s="7">
+        <v>308</v>
+      </c>
+      <c r="V35" s="7">
+        <v>308</v>
+      </c>
+      <c r="W35" s="7">
+        <v>308</v>
+      </c>
+      <c r="X35" s="7">
+        <v>308</v>
+      </c>
+      <c r="Y35" s="7">
+        <v>308</v>
+      </c>
+      <c r="Z35" s="7">
+        <v>308</v>
+      </c>
+      <c r="AA35" s="7">
+        <v>308</v>
+      </c>
+      <c r="AB35" s="7">
+        <v>308</v>
+      </c>
+      <c r="AC35" s="7">
+        <v>308</v>
+      </c>
+      <c r="AD35" s="6">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/recursos/matriz_estados.xlsx
+++ b/recursos/matriz_estados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C221A6-CA83-42EF-ABE0-B74700711009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801AE51D-DA0A-4192-A182-4B2D26A38E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B964F424-59DC-420D-8D18-139DE96934E4}"/>
   </bookViews>
@@ -281,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -323,9 +323,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -651,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9785B6-FC4B-4915-9F11-D05AE974D1C1}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11:AG11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1730,9 +1727,10 @@
         <v>302</v>
       </c>
       <c r="AF11" s="7">
-        <v>308</v>
-      </c>
-      <c r="AG11" s="15" t="s">
+        <f>-X9</f>
+        <v>-301</v>
+      </c>
+      <c r="AG11" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1984,13 +1982,13 @@
       <c r="U14" s="7">
         <v>302</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V14" s="5">
         <v>13</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="5">
         <v>13</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="5">
         <v>13</v>
       </c>
       <c r="Y14" s="7">
@@ -2064,7 +2062,7 @@
       <c r="Q15" s="7">
         <v>308</v>
       </c>
-      <c r="R15" s="15">
+      <c r="R15" s="5">
         <v>33</v>
       </c>
       <c r="S15" s="7">
@@ -2076,13 +2074,13 @@
       <c r="U15" s="7">
         <v>308</v>
       </c>
-      <c r="V15" s="15">
+      <c r="V15" s="5">
         <v>13</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="5">
         <v>13</v>
       </c>
-      <c r="X15" s="15">
+      <c r="X15" s="5">
         <v>13</v>
       </c>
       <c r="Y15" s="7">

--- a/recursos/matriz_estados.xlsx
+++ b/recursos/matriz_estados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801AE51D-DA0A-4192-A182-4B2D26A38E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B59E06-87C4-483C-A3E9-4B9DBC4DA506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B964F424-59DC-420D-8D18-139DE96934E4}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9785B6-FC4B-4915-9F11-D05AE974D1C1}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="O21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD37" sqref="AD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/recursos/matriz_estados.xlsx
+++ b/recursos/matriz_estados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Kevin Barboza\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Kevin\10mo semestre\compiladores\proyecto_compilador\recursos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B59E06-87C4-483C-A3E9-4B9DBC4DA506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8503FB91-43F4-4720-A8E6-438F44A550E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B964F424-59DC-420D-8D18-139DE96934E4}"/>
   </bookViews>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9785B6-FC4B-4915-9F11-D05AE974D1C1}">
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD37" sqref="AD37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="B22:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
